--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -173,17 +173,17 @@
 </t>
   </si>
   <si>
-    <t>Type of medication usage MedicationUsage Administration Location Codes (Example)</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordUsage.product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
-  </si>
-  <si>
-    <t>What medication was taken SNOMED CT Medication Codes (Example)</t>
+    <t>Type of medication usage MedicationUsage Administration Location Codes (Example)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordUsage.product[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>What medication was taken SNOMED CT Medication Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.subject</t>
@@ -226,14 +226,14 @@
     <t>Person or organization that provided the information about the taking of this medication</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordUsage.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
-</t>
-  </si>
-  <si>
-    <t>Reason for why the medication is being/was taken Condition/Problem/Diagnosis Codes (Example)</t>
+    <t>BeModelMedicationRecordUsage.reason[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Condition|Observation|DiagnosticReport)</t>
+  </si>
+  <si>
+    <t>Reason for why the medication is being/was taken Condition/Problem/Diagnosis Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.note</t>
@@ -279,13 +279,13 @@
     <t>BeModelMedicationRecordUsage.adherence.code</t>
   </si>
   <si>
-    <t>Type of adherence MedicationUsage Adherence Codes (Example)</t>
+    <t>Type of adherence MedicationUsage Adherence Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.reason</t>
   </si>
   <si>
-    <t>Details of the reason for the current use of the medication SNOMED CT Drug Therapy Status codes (Example)</t>
+    <t>Details of the reason for the current use of the medication SNOMED CT Drug Therapy Status codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.treatment</t>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
+    <t>The business identifier(s) for the medication Usage</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.status</t>
@@ -163,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t>completed | entered-in-error | unknown</t>
+    <t>Status of the report</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.category</t>
@@ -173,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t>Type of medication usage MedicationUsage Administration Location Codes (Example)</t>
+    <t>Type of medication usage</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.product[x]</t>
@@ -183,7 +183,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What medication was taken SNOMED CT Medication Codes (Example)</t>
+    <t>What product this report relates to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.subject</t>
@@ -193,7 +193,7 @@
 </t>
   </si>
   <si>
-    <t>Who is/was taking the medication</t>
+    <t>Whom this report relates to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.effective[x]</t>
@@ -203,7 +203,7 @@
 Period</t>
   </si>
   <si>
-    <t>The date/time or interval when the medication is/was/will be taken</t>
+    <t>The date/time or interval when the product is/was/will be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.dateAsserted</t>
@@ -223,7 +223,7 @@
 </t>
   </si>
   <si>
-    <t>Person or organization that provided the information about the taking of this medication</t>
+    <t>Source that provided the information about the usage of the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.reason[x]</t>
@@ -233,7 +233,7 @@
 Reference(Condition|Observation|DiagnosticReport)</t>
   </si>
   <si>
-    <t>Reason for why the medication is being/was taken Condition/Problem/Diagnosis Codes (Example)</t>
+    <t>Reason for why the product is/was being taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.note</t>
@@ -273,19 +273,19 @@
 </t>
   </si>
   <si>
-    <t>Indicates if the medication is being consumed or administered as instructed</t>
+    <t>Indicates if the product is being consumed or administered as instructed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.code</t>
   </si>
   <si>
-    <t>Type of adherence MedicationUsage Adherence Codes (Example)</t>
+    <t>Type of adherence</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.reason</t>
   </si>
   <si>
-    <t>Details of the reason for the current use of the medication SNOMED CT Drug Therapy Status codes (Example)</t>
+    <t>Details of the reason for the current adherence to the intended usage of the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.treatment</t>
@@ -293,6 +293,9 @@
   <si>
     <t xml:space="preserve">Reference
 </t>
+  </si>
+  <si>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2223,8 +2226,12 @@
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="K18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -163,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t>Status of the report</t>
+    <t>Status of the usage</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.category</t>
@@ -183,7 +183,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What product this report relates to</t>
+    <t>What product this usage relates to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.subject</t>
@@ -193,7 +193,7 @@
 </t>
   </si>
   <si>
-    <t>Whom this report relates to</t>
+    <t>Whom this usage relates to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.effective[x]</t>
@@ -263,7 +263,7 @@
 </t>
   </si>
   <si>
-    <t>Details of how medication is/was taken or should be taken</t>
+    <t>Details of how product is/was taken or should be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence</t>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$19</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="91">
   <si>
     <t>Path</t>
   </si>
@@ -288,7 +288,7 @@
     <t>Details of the reason for the current adherence to the intended usage of the product</t>
   </si>
   <si>
-    <t>BeModelMedicationRecordUsage.treatment</t>
+    <t>BeModelMedicationRecordUsage.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordUsage.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -463,7 +469,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2299,8 +2305,108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ18">
+  <autoFilter ref="A1:AJ19">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2310,7 +2416,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="92">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Record Usage logical model</t>
+  </si>
+  <si>
+    <t>A model for representing medication usage</t>
   </si>
   <si>
     <t>Base</t>
@@ -637,7 +640,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -687,7 +692,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -707,7 +712,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -730,13 +735,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -787,7 +792,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -807,7 +812,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -815,10 +820,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -830,13 +835,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -887,13 +892,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -907,7 +912,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -930,13 +935,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -987,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1007,7 +1012,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1015,10 +1020,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1030,13 +1035,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1087,13 +1092,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1107,7 +1112,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1115,10 +1120,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1130,13 +1135,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1187,13 +1192,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1207,7 +1212,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1218,7 +1223,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1230,13 +1235,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1287,13 +1292,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1307,7 +1312,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1318,7 +1323,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1330,13 +1335,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1387,13 +1392,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1407,7 +1412,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1418,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1430,13 +1435,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1487,13 +1492,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1507,7 +1512,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1530,13 +1535,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1587,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1607,7 +1612,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1630,13 +1635,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1687,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1707,7 +1712,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1718,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1730,13 +1735,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1787,13 +1792,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1807,7 +1812,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1830,13 +1835,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1887,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1907,7 +1912,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1918,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1930,13 +1935,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1987,13 +1992,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2007,7 +2012,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2015,10 +2020,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2030,13 +2035,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2087,13 +2092,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2107,7 +2112,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2118,7 +2123,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2130,13 +2135,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2187,13 +2192,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2207,7 +2212,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2218,7 +2223,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2230,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2287,13 +2292,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2307,7 +2312,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2318,7 +2323,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2330,13 +2335,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2387,13 +2392,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -137,7 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Usage logical model</t>
+    <t>[Logical Model] - Usage</t>
   </si>
   <si>
     <t>A model for representing medication usage</t>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -140,7 +140,7 @@
     <t>[Logical Model] - Usage</t>
   </si>
   <si>
-    <t>A model for representing medication usage</t>
+    <t>A model for representing medication usage.</t>
   </si>
   <si>
     <t>Base</t>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -137,10 +137,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>[Logical Model] - Usage</t>
-  </si>
-  <si>
-    <t>A model for representing medication usage.</t>
+    <t>Medication Record Usage logical model</t>
   </si>
   <si>
     <t>Base</t>
@@ -153,7 +150,7 @@
 </t>
   </si>
   <si>
-    <t>The business identifier(s) for the medication Usage</t>
+    <t>External identifier</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.status</t>
@@ -166,7 +163,7 @@
 </t>
   </si>
   <si>
-    <t>Status of the usage</t>
+    <t>completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.category</t>
@@ -176,7 +173,7 @@
 </t>
   </si>
   <si>
-    <t>Type of medication usage</t>
+    <t>Type of medication usage MedicationUsage Administration Location Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.product[x]</t>
@@ -186,7 +183,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What product this usage relates to</t>
+    <t>What medication was taken SNOMED CT Medication Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.subject</t>
@@ -196,7 +193,7 @@
 </t>
   </si>
   <si>
-    <t>Whom this usage relates to</t>
+    <t>Who is/was taking the medication</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.effective[x]</t>
@@ -206,7 +203,7 @@
 Period</t>
   </si>
   <si>
-    <t>The date/time or interval when the product is/was/will be taken</t>
+    <t>The date/time or interval when the medication is/was/will be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.dateAsserted</t>
@@ -226,7 +223,7 @@
 </t>
   </si>
   <si>
-    <t>Source that provided the information about the usage of the product</t>
+    <t>Person or organization that provided the information about the taking of this medication</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.reason[x]</t>
@@ -236,7 +233,7 @@
 Reference(Condition|Observation|DiagnosticReport)</t>
   </si>
   <si>
-    <t>Reason for why the product is/was being taken</t>
+    <t>Reason for why the medication is being/was taken Condition/Problem/Diagnosis Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.note</t>
@@ -266,7 +263,7 @@
 </t>
   </si>
   <si>
-    <t>Details of how product is/was taken or should be taken</t>
+    <t>Details of how medication is/was taken or should be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence</t>
@@ -276,35 +273,29 @@
 </t>
   </si>
   <si>
-    <t>Indicates if the product is being consumed or administered as instructed</t>
+    <t>Indicates if the medication is being consumed or administered as instructed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.code</t>
   </si>
   <si>
-    <t>Type of adherence</t>
+    <t>Type of adherence MedicationUsage Adherence Codes (Example)</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.reason</t>
   </si>
   <si>
-    <t>Details of the reason for the current adherence to the intended usage of the product</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordUsage.treatmentPlan</t>
+    <t>Details of the reason for the current use of the medication SNOMED CT Drug Therapy Status codes (Example)</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordUsage.treatment</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordUsage.basedOn</t>
-  </si>
-  <si>
-    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
+    <t>The treatment that this medication usage report belongs to</t>
   </si>
 </sst>
 </file>
@@ -453,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -472,7 +463,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.94921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -640,9 +631,7 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -692,7 +681,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -712,7 +701,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -735,13 +724,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="L3" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -792,7 +781,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -812,7 +801,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -820,28 +809,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s" s="2">
+      <c r="K4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -892,13 +881,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -912,7 +901,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -935,13 +924,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -992,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1012,7 +1001,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1020,10 +1009,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1035,13 +1024,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1092,13 +1081,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1112,7 +1101,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1120,10 +1109,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1135,13 +1124,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1192,13 +1181,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1212,7 +1201,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1223,7 +1212,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1235,13 +1224,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>61</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1292,13 +1281,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1312,7 +1301,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1323,7 +1312,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1335,13 +1324,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>64</v>
-      </c>
       <c r="L9" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1392,13 +1381,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1412,7 +1401,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1423,7 +1412,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1435,13 +1424,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1492,13 +1481,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1512,7 +1501,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1535,13 +1524,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>70</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1592,7 +1581,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1612,7 +1601,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1635,13 +1624,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1692,7 +1681,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1712,7 +1701,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1723,7 +1712,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1735,13 +1724,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1792,13 +1781,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1812,7 +1801,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1835,13 +1824,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1892,7 +1881,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1912,7 +1901,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1923,7 +1912,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1935,13 +1924,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1992,13 +1981,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2012,7 +2001,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2020,10 +2009,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2035,13 +2024,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2092,13 +2081,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2112,7 +2101,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2123,7 +2112,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2135,13 +2124,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2192,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2212,7 +2201,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2223,7 +2212,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2235,13 +2224,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2292,13 +2281,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2307,111 +2296,11 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ19">
+  <autoFilter ref="A1:AJ18">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2421,7 +2310,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI18">
+  <conditionalFormatting sqref="A2:AI17">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BeModelMedicationRecordUsage.xlsx
+++ b/StructureDefinition-BeModelMedicationRecordUsage.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$19</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="92">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Medication Record Usage logical model</t>
+    <t>[Logical Model] - Usage</t>
+  </si>
+  <si>
+    <t>A model for representing medication usage.</t>
   </si>
   <si>
     <t>Base</t>
@@ -150,7 +153,7 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
+    <t>The business identifier(s) for the medication Usage</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.status</t>
@@ -163,7 +166,7 @@
 </t>
   </si>
   <si>
-    <t>completed | entered-in-error | unknown</t>
+    <t>Status of the usage</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.category</t>
@@ -173,7 +176,7 @@
 </t>
   </si>
   <si>
-    <t>Type of medication usage MedicationUsage Administration Location Codes (Example)</t>
+    <t>Type of medication usage</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.product[x]</t>
@@ -183,7 +186,7 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What medication was taken SNOMED CT Medication Codes (Example)</t>
+    <t>What product this usage relates to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.subject</t>
@@ -193,7 +196,7 @@
 </t>
   </si>
   <si>
-    <t>Who is/was taking the medication</t>
+    <t>Whom this usage relates to</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.effective[x]</t>
@@ -203,7 +206,7 @@
 Period</t>
   </si>
   <si>
-    <t>The date/time or interval when the medication is/was/will be taken</t>
+    <t>The date/time or interval when the product is/was/will be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.dateAsserted</t>
@@ -223,7 +226,7 @@
 </t>
   </si>
   <si>
-    <t>Person or organization that provided the information about the taking of this medication</t>
+    <t>Source that provided the information about the usage of the product</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.reason[x]</t>
@@ -233,7 +236,7 @@
 Reference(Condition|Observation|DiagnosticReport)</t>
   </si>
   <si>
-    <t>Reason for why the medication is being/was taken Condition/Problem/Diagnosis Codes (Example)</t>
+    <t>Reason for why the product is/was being taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.note</t>
@@ -263,7 +266,7 @@
 </t>
   </si>
   <si>
-    <t>Details of how medication is/was taken or should be taken</t>
+    <t>Details of how product is/was taken or should be taken</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence</t>
@@ -273,29 +276,35 @@
 </t>
   </si>
   <si>
-    <t>Indicates if the medication is being consumed or administered as instructed</t>
+    <t>Indicates if the product is being consumed or administered as instructed</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.code</t>
   </si>
   <si>
-    <t>Type of adherence MedicationUsage Adherence Codes (Example)</t>
+    <t>Type of adherence</t>
   </si>
   <si>
     <t>BeModelMedicationRecordUsage.adherence.reason</t>
   </si>
   <si>
-    <t>Details of the reason for the current use of the medication SNOMED CT Drug Therapy Status codes (Example)</t>
-  </si>
-  <si>
-    <t>BeModelMedicationRecordUsage.treatment</t>
+    <t>Details of the reason for the current adherence to the intended usage of the product</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordUsage.treatmentPlan</t>
   </si>
   <si>
     <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>The treatment that this medication usage report belongs to</t>
+    <t>Link to the 'parent' treatment - i.e the treatment that this order is derived from, or contriburing to</t>
+  </si>
+  <si>
+    <t>BeModelMedicationRecordUsage.basedOn</t>
+  </si>
+  <si>
+    <t>link to the 'parent' treatmentLine - i.e the line that covers all of the same drug for a certain purpose</t>
   </si>
 </sst>
 </file>
@@ -444,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -463,7 +472,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.94921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.9453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -631,7 +640,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -681,7 +692,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -701,7 +712,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -724,13 +735,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -781,7 +792,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -801,7 +812,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -809,10 +820,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>37</v>
@@ -824,13 +835,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -881,13 +892,13 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
@@ -901,7 +912,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -924,13 +935,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -981,7 +992,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -1001,7 +1012,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1009,10 +1020,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1024,13 +1035,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1081,13 +1092,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1101,7 +1112,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1109,10 +1120,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1124,13 +1135,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1181,13 +1192,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1201,7 +1212,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1212,7 +1223,7 @@
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1224,13 +1235,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1281,13 +1292,13 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
@@ -1301,7 +1312,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1312,7 +1323,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1324,13 +1335,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1381,13 +1392,13 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1401,7 +1412,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1412,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>37</v>
@@ -1424,13 +1435,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1481,13 +1492,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1501,7 +1512,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1524,13 +1535,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1581,7 +1592,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1601,7 +1612,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1624,13 +1635,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1681,7 +1692,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1701,7 +1712,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1712,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>37</v>
@@ -1724,13 +1735,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1781,13 +1792,13 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>37</v>
@@ -1801,7 +1812,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1824,13 +1835,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1881,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1901,7 +1912,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1912,7 +1923,7 @@
         <v>38</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -1924,13 +1935,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1981,13 +1992,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2001,7 +2012,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2009,10 +2020,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2024,13 +2035,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2081,13 +2092,13 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>37</v>
@@ -2101,7 +2112,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2112,7 +2123,7 @@
         <v>38</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2124,13 +2135,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2181,13 +2192,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2201,7 +2212,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2212,7 +2223,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2224,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2281,13 +2292,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2296,11 +2307,111 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ18">
+  <autoFilter ref="A1:AJ19">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2310,7 +2421,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI17">
+  <conditionalFormatting sqref="A2:AI18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
